--- a/results/20250402/evaluation_VirusPseAAC_noisy_0.0.xlsx
+++ b/results/20250402/evaluation_VirusPseAAC_noisy_0.0.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.34832</v>
+        <v>0.65843</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04388</v>
+        <v>0.04403</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.21707</v>
+        <v>0.12567</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04161</v>
+        <v>0.03588</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.35497</v>
+        <v>0.66266</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04299</v>
+        <v>0.04577</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.23148</v>
+        <v>0.18386</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04778</v>
+        <v>0.04795</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.35005</v>
+        <v>0.65779</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04647</v>
+        <v>0.04485</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.21243</v>
+        <v>0.12091</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04111</v>
+        <v>0.04084</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.35287</v>
+        <v>0.66167</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04349</v>
+        <v>0.04663</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.22195</v>
+        <v>0.1935</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05293</v>
+        <v>0.05546</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.36519</v>
+        <v>0.663</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0362</v>
+        <v>0.03893</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.23171</v>
+        <v>0.08211</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03152</v>
+        <v>0.04442</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.36909</v>
+        <v>0.66238</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03495</v>
+        <v>0.03938</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.23659</v>
+        <v>0.09186999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03802</v>
+        <v>0.04669</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.36519</v>
+        <v>0.66398</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0362</v>
+        <v>0.04023</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.23171</v>
+        <v>0.08211</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03152</v>
+        <v>0.04442</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.36909</v>
+        <v>0.66269</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03495</v>
+        <v>0.03874</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.23659</v>
+        <v>0.09186999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03802</v>
+        <v>0.04669</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.33831</v>
+        <v>0.66328</v>
       </c>
       <c r="I66" t="n">
-        <v>0.06898</v>
+        <v>0.04879</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.1885</v>
+        <v>0.11603</v>
       </c>
       <c r="I67" t="n">
-        <v>0.04758</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.32833</v>
+        <v>0.66266</v>
       </c>
       <c r="I68" t="n">
-        <v>0.06344</v>
+        <v>0.0467</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.18374</v>
+        <v>0.12567</v>
       </c>
       <c r="I69" t="n">
-        <v>0.04833</v>
+        <v>0.06551</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.34093</v>
+        <v>0.66455</v>
       </c>
       <c r="I70" t="n">
-        <v>0.07087</v>
+        <v>0.04736</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.19338</v>
+        <v>0.11603</v>
       </c>
       <c r="I71" t="n">
-        <v>0.04923</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.34616</v>
+        <v>0.66651</v>
       </c>
       <c r="I72" t="n">
-        <v>0.07199</v>
+        <v>0.04069</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.19826</v>
+        <v>0.14019</v>
       </c>
       <c r="I73" t="n">
-        <v>0.05701</v>
+        <v>0.05603</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.32932</v>
+        <v>0.67132</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0727</v>
+        <v>0.03731</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.17398</v>
+        <v>0.07247000000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04983</v>
+        <v>0.05073</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.31809</v>
+        <v>0.67194</v>
       </c>
       <c r="I76" t="n">
-        <v>0.06736</v>
+        <v>0.03795</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.16911</v>
+        <v>0.09651999999999999</v>
       </c>
       <c r="I77" t="n">
-        <v>0.04871</v>
+        <v>0.05895</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.32869</v>
+        <v>0.67196</v>
       </c>
       <c r="I78" t="n">
-        <v>0.07194</v>
+        <v>0.03755</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.17398</v>
+        <v>0.07247000000000001</v>
       </c>
       <c r="I79" t="n">
-        <v>0.04983</v>
+        <v>0.05073</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.31618</v>
+        <v>0.6722900000000001</v>
       </c>
       <c r="I80" t="n">
-        <v>0.06525</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.16434</v>
+        <v>0.10139</v>
       </c>
       <c r="I81" t="n">
-        <v>0.04753</v>
+        <v>0.05572</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.33038</v>
+        <v>0.66351</v>
       </c>
       <c r="I106" t="n">
-        <v>0.03677</v>
+        <v>0.03436</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.18339</v>
+        <v>0.13055</v>
       </c>
       <c r="I107" t="n">
-        <v>0.03144</v>
+        <v>0.04946</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.3259</v>
+        <v>0.66325</v>
       </c>
       <c r="I108" t="n">
-        <v>0.03976</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.18827</v>
+        <v>0.16446</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02688</v>
+        <v>0.05392</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.33332</v>
+        <v>0.66221</v>
       </c>
       <c r="I110" t="n">
-        <v>0.04099</v>
+        <v>0.03539</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.19315</v>
+        <v>0.1403</v>
       </c>
       <c r="I111" t="n">
-        <v>0.02974</v>
+        <v>0.06009</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.33207</v>
+        <v>0.66715</v>
       </c>
       <c r="I112" t="n">
-        <v>0.04301</v>
+        <v>0.04361</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.19803</v>
+        <v>0.17909</v>
       </c>
       <c r="I113" t="n">
-        <v>0.02758</v>
+        <v>0.05892</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.32498</v>
+        <v>0.67419</v>
       </c>
       <c r="I114" t="n">
-        <v>0.03618</v>
+        <v>0.03071</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.19791</v>
+        <v>0.09186999999999999</v>
       </c>
       <c r="I115" t="n">
-        <v>0.02202</v>
+        <v>0.03567</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.32562</v>
+        <v>0.67196</v>
       </c>
       <c r="I116" t="n">
-        <v>0.03573</v>
+        <v>0.03191</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.19791</v>
+        <v>0.1065</v>
       </c>
       <c r="I117" t="n">
-        <v>0.02202</v>
+        <v>0.05034</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.32498</v>
+        <v>0.67419</v>
       </c>
       <c r="I118" t="n">
-        <v>0.03618</v>
+        <v>0.03071</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.19791</v>
+        <v>0.09186999999999999</v>
       </c>
       <c r="I119" t="n">
-        <v>0.02202</v>
+        <v>0.03567</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.32562</v>
+        <v>0.67294</v>
       </c>
       <c r="I120" t="n">
-        <v>0.03573</v>
+        <v>0.03176</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.19791</v>
+        <v>0.11138</v>
       </c>
       <c r="I121" t="n">
-        <v>0.02202</v>
+        <v>0.04545</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.30665</v>
+        <v>0.66837</v>
       </c>
       <c r="I146" t="n">
-        <v>0.04767</v>
+        <v>0.05208</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.2029</v>
+        <v>0.15006</v>
       </c>
       <c r="I147" t="n">
-        <v>0.03264</v>
+        <v>0.06028</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.30278</v>
+        <v>0.6616300000000001</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0479</v>
+        <v>0.05656</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.19803</v>
+        <v>0.16934</v>
       </c>
       <c r="I149" t="n">
-        <v>0.03517</v>
+        <v>0.07485</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.30986</v>
+        <v>0.66642</v>
       </c>
       <c r="I150" t="n">
-        <v>0.05123</v>
+        <v>0.05443</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.20778</v>
+        <v>0.15006</v>
       </c>
       <c r="I151" t="n">
-        <v>0.03951</v>
+        <v>0.06028</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.31376</v>
+        <v>0.6674600000000001</v>
       </c>
       <c r="I152" t="n">
-        <v>0.05056</v>
+        <v>0.05491</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.20778</v>
+        <v>0.20314</v>
       </c>
       <c r="I153" t="n">
-        <v>0.03951</v>
+        <v>0.07555000000000001</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.32757</v>
+        <v>0.67194</v>
       </c>
       <c r="I154" t="n">
-        <v>0.04437</v>
+        <v>0.04406</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.21243</v>
+        <v>0.11614</v>
       </c>
       <c r="I155" t="n">
-        <v>0.02237</v>
+        <v>0.04911</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.31789</v>
+        <v>0.67</v>
       </c>
       <c r="I156" t="n">
-        <v>0.03945</v>
+        <v>0.04415</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.21254</v>
+        <v>0.13554</v>
       </c>
       <c r="I157" t="n">
-        <v>0.00902</v>
+        <v>0.06221</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.32757</v>
+        <v>0.6712900000000001</v>
       </c>
       <c r="I158" t="n">
-        <v>0.04437</v>
+        <v>0.04423</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.21243</v>
+        <v>0.11614</v>
       </c>
       <c r="I159" t="n">
-        <v>0.02237</v>
+        <v>0.04911</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.3205</v>
+        <v>0.66839</v>
       </c>
       <c r="I160" t="n">
-        <v>0.03652</v>
+        <v>0.04391</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.21742</v>
+        <v>0.13554</v>
       </c>
       <c r="I161" t="n">
-        <v>0.00256</v>
+        <v>0.06221</v>
       </c>
     </row>
   </sheetData>
